--- a/data/trans_orig/Predimed-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 6,91</t>
+          <t>6,47; 6,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 7,07</t>
+          <t>6,71; 7,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 6,92</t>
+          <t>6,63; 6,92</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,57; 6,99</t>
+          <t>6,56; 6,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 6,75</t>
+          <t>6,42; 6,73</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 6,9</t>
+          <t>6,34; 6,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 7,17</t>
+          <t>6,56; 7,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 6,91</t>
+          <t>6,49; 6,91</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 6,58</t>
+          <t>6,18; 6,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 7,51</t>
+          <t>6,58; 7,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 7,08</t>
+          <t>6,46; 7,13</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,9; 6,36</t>
+          <t>5,91; 6,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 7,0</t>
+          <t>6,29; 7,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 6,68</t>
+          <t>6,22; 6,72</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,57; 6,37</t>
+          <t>5,51; 6,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,67; 5,97</t>
+          <t>5,67; 5,96</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,33; 6,57</t>
+          <t>6,33; 6,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,43; 6,89</t>
+          <t>6,43; 6,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 6,69</t>
+          <t>6,4; 6,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Predimed-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Clase-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Escala adherencia a la dieta mediterránea a través del Predimed</t>
+          <t>Puntuación media de la escala de adherencia a la dieta mediterránea (Predimed)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
